--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:19:42+00:00</t>
+    <t>2025-07-25T10:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:27:14+00:00</t>
+    <t>2025-07-25T13:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T13:53:43+00:00</t>
+    <t>2025-07-28T11:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T11:47:16+00:00</t>
+    <t>2025-07-28T13:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:00:34+00:00</t>
+    <t>2025-07-29T08:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:16:15+00:00</t>
+    <t>2025-07-30T16:43:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:43:10+00:00</t>
+    <t>2025-07-31T07:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:16:30+00:00</t>
+    <t>2025-07-31T07:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:17:41+00:00</t>
+    <t>2025-07-31T10:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:47:16+00:00</t>
+    <t>2025-07-31T12:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
